--- a/Datas/result/统计指标.xlsx
+++ b/Datas/result/统计指标.xlsx
@@ -473,7 +473,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -519,40 +519,232 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B2">
+        <v>356</v>
+      </c>
+      <c r="C2">
+        <v>14733</v>
+      </c>
+      <c r="D2">
+        <v>82.76</v>
+      </c>
+      <c r="E2">
+        <v>1.79</v>
+      </c>
+      <c r="F2">
+        <v>1.77</v>
+      </c>
+      <c r="G2">
+        <v>0.64810000000000001</v>
+      </c>
+      <c r="H2">
+        <v>0.23449999999999999</v>
+      </c>
+      <c r="I2">
+        <v>-0.28999999999999998</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B3">
+        <v>356</v>
+      </c>
+      <c r="C3">
+        <v>17897</v>
+      </c>
+      <c r="D3">
+        <v>50.27</v>
+      </c>
+      <c r="E3">
+        <v>1.73</v>
+      </c>
+      <c r="F3">
+        <v>1.72</v>
+      </c>
+      <c r="G3">
+        <v>0.64810000000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.2833</v>
+      </c>
+      <c r="I3">
+        <v>-0.30170000000000002</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B4">
+        <v>9474</v>
+      </c>
+      <c r="C4">
+        <v>86203</v>
+      </c>
+      <c r="D4">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E4">
+        <v>3.24</v>
+      </c>
+      <c r="F4">
+        <v>3.48</v>
+      </c>
+      <c r="G4">
+        <v>0.62880000000000003</v>
+      </c>
+      <c r="H4">
+        <v>1.8E-3</v>
+      </c>
+      <c r="I4">
+        <v>0.1171</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B5">
+        <v>9474</v>
+      </c>
+      <c r="C5">
+        <v>160895</v>
+      </c>
+      <c r="D5">
+        <v>16.98</v>
+      </c>
+      <c r="E5">
+        <v>3.31</v>
+      </c>
+      <c r="F5">
+        <v>2.9</v>
+      </c>
+      <c r="G5">
+        <v>0.62880000000000003</v>
+      </c>
+      <c r="H5">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="I5">
+        <v>7.6300000000000007E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B6">
+        <v>356</v>
+      </c>
+      <c r="C6">
+        <v>14733</v>
+      </c>
+      <c r="D6">
+        <v>82.76</v>
+      </c>
+      <c r="E6">
+        <v>1.79</v>
+      </c>
+      <c r="F6">
+        <v>1.77</v>
+      </c>
+      <c r="G6">
+        <v>0.64810000000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.23350000000000001</v>
+      </c>
+      <c r="I6">
+        <v>-0.28999999999999998</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B7">
+        <v>356</v>
+      </c>
+      <c r="C7">
+        <v>17897</v>
+      </c>
+      <c r="D7">
+        <v>50.27</v>
+      </c>
+      <c r="E7">
+        <v>1.73</v>
+      </c>
+      <c r="F7">
+        <v>1.72</v>
+      </c>
+      <c r="G7">
+        <v>0.64810000000000001</v>
+      </c>
+      <c r="H7">
+        <v>0.2833</v>
+      </c>
+      <c r="I7">
+        <v>-0.30170000000000002</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B8">
+        <v>9474</v>
+      </c>
+      <c r="C8">
+        <v>86203</v>
+      </c>
+      <c r="D8">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E8">
+        <v>3.24</v>
+      </c>
+      <c r="F8">
+        <v>3.48</v>
+      </c>
+      <c r="G8">
+        <v>0.62880000000000003</v>
+      </c>
+      <c r="H8">
+        <v>1.8E-3</v>
+      </c>
+      <c r="I8">
+        <v>0.1171</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="B9">
+        <v>9474</v>
+      </c>
+      <c r="C9">
+        <v>160895</v>
+      </c>
+      <c r="D9">
+        <v>16.98</v>
+      </c>
+      <c r="E9">
+        <v>3.3180000000000001</v>
+      </c>
+      <c r="F9">
+        <v>2.9</v>
+      </c>
+      <c r="G9">
+        <v>0.62880000000000003</v>
+      </c>
+      <c r="H9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I9">
+        <v>7.6300000000000007E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
